--- a/optimisation_transport__/Optimisation_Transport_J1.xlsx
+++ b/optimisation_transport__/Optimisation_Transport_J1.xlsx
@@ -565,7 +565,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -583,13 +583,13 @@
         <v>20.36</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>9045.84</v>
+        <v>1569.75</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>10888</v>
+        <v>1890</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>-735218276.45</v>
+        <v>-735227274.45</v>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -618,13 +618,13 @@
         <v>76.42</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>800.4299999999999</v>
+        <v>259.19</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1413</v>
+        <v>458</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>56063011.25</v>
+        <v>56062056.25</v>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
@@ -635,7 +635,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -653,13 +653,13 @@
         <v>92.38</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1145.85</v>
+        <v>261.6</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2205</v>
+        <v>504</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>-35097575.16</v>
+        <v>-35099276.16</v>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -688,13 +688,13 @@
         <v>77.87</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>887.1900000000001</v>
+        <v>298.24</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1579</v>
+        <v>531</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>218837153.39</v>
+        <v>218836105.39</v>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -723,13 +723,13 @@
         <v>1047.42</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>671.03</v>
+        <v>108.43</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>7700</v>
+        <v>1245</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>-42933637.38</v>
+        <v>-42940092.38</v>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
@@ -740,7 +740,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -758,13 +758,13 @@
         <v>80.04000000000001</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>750</v>
+        <v>220.11</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1351</v>
+        <v>397</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>108544251.58</v>
+        <v>108543297.58</v>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -793,13 +793,13 @@
         <v>68.47</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2629.35</v>
+        <v>385.23</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4430</v>
+        <v>650</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>-380347177.42</v>
+        <v>-380350957.42</v>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -828,13 +828,13 @@
         <v>62.87</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>607.36</v>
+        <v>256.86</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>990</v>
+        <v>419</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>-25461717.99</v>
+        <v>-25462288.99</v>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -863,13 +863,13 @@
         <v>87.94</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>581.26</v>
+        <v>164.97</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1093</v>
+        <v>311</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>-4645680.54</v>
+        <v>-4646462.54</v>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -898,13 +898,13 @@
         <v>62.63</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1126.39</v>
+        <v>288.04</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1832</v>
+        <v>469</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>66029190.31</v>
+        <v>66027827.31</v>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -933,13 +933,13 @@
         <v>101.62</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>609.22</v>
+        <v>122.04</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1229</v>
+        <v>247</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>-14674346.78</v>
+        <v>-14675328.78</v>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -968,13 +968,13 @@
         <v>28.88</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>689.11</v>
+        <v>305.72</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>889</v>
+        <v>394</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>40152296.68</v>
+        <v>40151801.68</v>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1003,13 +1003,13 @@
         <v>80.05</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>613.64</v>
+        <v>213.56</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1105</v>
+        <v>385</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>46449730.67</v>
+        <v>46449010.67</v>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1038,13 +1038,13 @@
         <v>100.76</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>180.71</v>
+        <v>23.96</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>363</v>
+        <v>49</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>-1778868.97</v>
+        <v>-1779182.97</v>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1073,13 +1073,13 @@
         <v>124.02</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>648.2</v>
+        <v>202.74</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1453</v>
+        <v>455</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>-9680706.560000001</v>
+        <v>-9681704.560000001</v>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1108,13 +1108,13 @@
         <v>1584.48</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>788.26</v>
+        <v>248.52</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>13279</v>
+        <v>4187</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>-25502646.97</v>
+        <v>-25511738.97</v>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1143,13 +1143,13 @@
         <v>72.01000000000001</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>823.27</v>
+        <v>266.28</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1417</v>
+        <v>459</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>92992235.83</v>
+        <v>92991277.83</v>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1178,13 +1178,13 @@
         <v>301.54</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>575.03</v>
+        <v>250</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2309</v>
+        <v>1004</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>74032948.63</v>
+        <v>74031643.63</v>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1213,13 +1213,13 @@
         <v>74.20999999999999</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>438.86</v>
+        <v>107.48</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>765</v>
+        <v>188</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>-32696955.59</v>
+        <v>-32697532.59</v>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1248,13 +1248,13 @@
         <v>90.23</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>589.85</v>
+        <v>158.36</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1123</v>
+        <v>302</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>9761842.1</v>
+        <v>9761021.1</v>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1283,13 +1283,13 @@
         <v>102.77</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>543.25</v>
+        <v>190.48</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1102</v>
+        <v>387</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>11772645.38</v>
+        <v>11771930.38</v>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1318,13 +1318,13 @@
         <v>212.3</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>510.64</v>
+        <v>191.58</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1595</v>
+        <v>599</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>45317274.98</v>
+        <v>45316278.98</v>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1353,13 +1353,13 @@
         <v>53.22</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>584.74</v>
+        <v>181.76</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>896</v>
+        <v>279</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>20238471.87</v>
+        <v>20237854.87</v>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -1388,13 +1388,13 @@
         <v>393.88</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>564.76</v>
+        <v>183.61</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2790</v>
+        <v>907</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>40380454.9</v>
+        <v>40378571.9</v>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1423,13 +1423,13 @@
         <v>177.71</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>564.24</v>
+        <v>183.32</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1567</v>
+        <v>510</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>8727824.92</v>
+        <v>8726767.92</v>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1458,13 +1458,13 @@
         <v>149.86</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>544.76</v>
+        <v>125.54</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>1362</v>
+        <v>314</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>108605687.71</v>
+        <v>108604639.71</v>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -1493,13 +1493,13 @@
         <v>237.59</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>547.24</v>
+        <v>205.69</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>1848</v>
+        <v>695</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>68483777.34</v>
+        <v>68482624.34</v>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1528,13 +1528,13 @@
         <v>108.89</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>327.58</v>
+        <v>101.1</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>685</v>
+        <v>212</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>899782.76</v>
+        <v>899309.76</v>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -1563,13 +1563,13 @@
         <v>106.18</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>531.87</v>
+        <v>224.43</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1097</v>
+        <v>463</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>14468349.06</v>
+        <v>14467715.06</v>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
@@ -1703,7 +1703,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -1721,13 +1721,13 @@
         <v>20.36</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>9045.84</v>
+        <v>1569.75</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>10888</v>
+        <v>1890</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>-735218276.45</v>
+        <v>-735227274.45</v>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -1756,13 +1756,13 @@
         <v>76.42</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>800.4299999999999</v>
+        <v>259.19</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1413</v>
+        <v>458</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>56063011.25</v>
+        <v>56062056.25</v>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -1791,13 +1791,13 @@
         <v>92.38</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1145.85</v>
+        <v>261.6</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2205</v>
+        <v>504</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>-35097575.16</v>
+        <v>-35099276.16</v>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -1826,13 +1826,13 @@
         <v>77.87</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>887.1900000000001</v>
+        <v>298.24</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1579</v>
+        <v>531</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>218837153.39</v>
+        <v>218836105.39</v>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -1861,13 +1861,13 @@
         <v>1047.42</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>671.03</v>
+        <v>108.43</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>7700</v>
+        <v>1245</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>-42933637.38</v>
+        <v>-42940092.38</v>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -1896,13 +1896,13 @@
         <v>80.04000000000001</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>750</v>
+        <v>220.11</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1351</v>
+        <v>397</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>108544251.58</v>
+        <v>108543297.58</v>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -1931,13 +1931,13 @@
         <v>68.47</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2629.35</v>
+        <v>385.23</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4430</v>
+        <v>650</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>-380347177.42</v>
+        <v>-380350957.42</v>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -1966,13 +1966,13 @@
         <v>62.87</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>607.36</v>
+        <v>256.86</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>990</v>
+        <v>419</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>-25461717.99</v>
+        <v>-25462288.99</v>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -2001,13 +2001,13 @@
         <v>87.94</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>581.26</v>
+        <v>164.97</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1093</v>
+        <v>311</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>-4645680.54</v>
+        <v>-4646462.54</v>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -2036,13 +2036,13 @@
         <v>62.63</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1126.39</v>
+        <v>288.04</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1832</v>
+        <v>469</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>66029190.31</v>
+        <v>66027827.31</v>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -2071,13 +2071,13 @@
         <v>101.62</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>609.22</v>
+        <v>122.04</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1229</v>
+        <v>247</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>-14674346.78</v>
+        <v>-14675328.78</v>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -2106,13 +2106,13 @@
         <v>28.88</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>689.11</v>
+        <v>305.72</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>889</v>
+        <v>394</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>40152296.68</v>
+        <v>40151801.68</v>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -2141,13 +2141,13 @@
         <v>80.05</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>613.64</v>
+        <v>213.56</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1105</v>
+        <v>385</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>46449730.67</v>
+        <v>46449010.67</v>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -2176,13 +2176,13 @@
         <v>100.76</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>180.71</v>
+        <v>23.96</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>363</v>
+        <v>49</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>-1778868.97</v>
+        <v>-1779182.97</v>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -2211,13 +2211,13 @@
         <v>124.02</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>648.2</v>
+        <v>202.74</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1453</v>
+        <v>455</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>-9680706.560000001</v>
+        <v>-9681704.560000001</v>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -2246,13 +2246,13 @@
         <v>1584.48</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>788.26</v>
+        <v>248.52</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>13279</v>
+        <v>4187</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>-25502646.97</v>
+        <v>-25511738.97</v>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -2281,13 +2281,13 @@
         <v>72.01000000000001</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>823.27</v>
+        <v>266.28</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1417</v>
+        <v>459</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>92992235.83</v>
+        <v>92991277.83</v>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -2316,13 +2316,13 @@
         <v>301.54</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>575.03</v>
+        <v>250</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2309</v>
+        <v>1004</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>74032948.63</v>
+        <v>74031643.63</v>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -2351,13 +2351,13 @@
         <v>74.20999999999999</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>438.86</v>
+        <v>107.48</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>765</v>
+        <v>188</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>-32696955.59</v>
+        <v>-32697532.59</v>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -2386,13 +2386,13 @@
         <v>90.23</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>589.85</v>
+        <v>158.36</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1123</v>
+        <v>302</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>9761842.1</v>
+        <v>9761021.1</v>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -2421,13 +2421,13 @@
         <v>102.77</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>543.25</v>
+        <v>190.48</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1102</v>
+        <v>387</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>11772645.38</v>
+        <v>11771930.38</v>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -2456,13 +2456,13 @@
         <v>212.3</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>510.64</v>
+        <v>191.58</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1595</v>
+        <v>599</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>45317274.98</v>
+        <v>45316278.98</v>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -2491,13 +2491,13 @@
         <v>53.22</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>584.74</v>
+        <v>181.76</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>896</v>
+        <v>279</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>20238471.87</v>
+        <v>20237854.87</v>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -2526,13 +2526,13 @@
         <v>393.88</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>564.76</v>
+        <v>183.61</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2790</v>
+        <v>907</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>40380454.9</v>
+        <v>40378571.9</v>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -2561,13 +2561,13 @@
         <v>177.71</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>564.24</v>
+        <v>183.32</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1567</v>
+        <v>510</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>8727824.92</v>
+        <v>8726767.92</v>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -2596,13 +2596,13 @@
         <v>149.86</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>544.76</v>
+        <v>125.54</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>1362</v>
+        <v>314</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>108605687.71</v>
+        <v>108604639.71</v>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -2631,13 +2631,13 @@
         <v>237.59</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>547.24</v>
+        <v>205.69</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>1848</v>
+        <v>695</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>68483777.34</v>
+        <v>68482624.34</v>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -2666,13 +2666,13 @@
         <v>108.89</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>327.58</v>
+        <v>101.1</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>685</v>
+        <v>212</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>899782.76</v>
+        <v>899309.76</v>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -2701,13 +2701,13 @@
         <v>106.18</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>531.87</v>
+        <v>224.43</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1097</v>
+        <v>463</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>14468349.06</v>
+        <v>14467715.06</v>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
@@ -2829,7 +2829,7 @@
         </is>
       </c>
       <c r="B3" s="9" t="n">
-        <v>56063011.25</v>
+        <v>56062056.25</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         </is>
       </c>
       <c r="E3" s="9" t="n">
-        <v>735218276.45</v>
+        <v>735227274.45</v>
       </c>
     </row>
     <row r="4">
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="B4" s="9" t="n">
-        <v>218837153.39</v>
+        <v>218836105.39</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         </is>
       </c>
       <c r="E4" s="9" t="n">
-        <v>35097575.16</v>
+        <v>35099276.16</v>
       </c>
     </row>
     <row r="5">
@@ -2865,7 +2865,7 @@
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>108544251.58</v>
+        <v>108543297.58</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         </is>
       </c>
       <c r="E5" s="9" t="n">
-        <v>42933637.38</v>
+        <v>42940092.38</v>
       </c>
     </row>
     <row r="6">
@@ -2883,7 +2883,7 @@
         </is>
       </c>
       <c r="B6" s="9" t="n">
-        <v>66029190.31</v>
+        <v>66027827.31</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="E6" s="9" t="n">
-        <v>380347177.42</v>
+        <v>380350957.42</v>
       </c>
     </row>
     <row r="7">
@@ -2901,7 +2901,7 @@
         </is>
       </c>
       <c r="B7" s="9" t="n">
-        <v>40152296.68</v>
+        <v>40151801.68</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         </is>
       </c>
       <c r="E7" s="9" t="n">
-        <v>25461717.99</v>
+        <v>25462288.99</v>
       </c>
     </row>
     <row r="8">
@@ -2919,7 +2919,7 @@
         </is>
       </c>
       <c r="B8" s="9" t="n">
-        <v>46449730.67</v>
+        <v>46449010.67</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="E8" s="9" t="n">
-        <v>4645680.54</v>
+        <v>4646462.54</v>
       </c>
     </row>
     <row r="9">
@@ -2937,7 +2937,7 @@
         </is>
       </c>
       <c r="B9" s="9" t="n">
-        <v>92992235.83</v>
+        <v>92991277.83</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="E9" s="9" t="n">
-        <v>14674346.78</v>
+        <v>14675328.78</v>
       </c>
     </row>
     <row r="10">
@@ -2955,7 +2955,7 @@
         </is>
       </c>
       <c r="B10" s="9" t="n">
-        <v>74032948.63</v>
+        <v>74031643.63</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         </is>
       </c>
       <c r="E10" s="9" t="n">
-        <v>1778868.97</v>
+        <v>1779182.97</v>
       </c>
     </row>
     <row r="11">
@@ -2973,7 +2973,7 @@
         </is>
       </c>
       <c r="B11" s="9" t="n">
-        <v>9761842.1</v>
+        <v>9761021.1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         </is>
       </c>
       <c r="E11" s="9" t="n">
-        <v>9680706.560000001</v>
+        <v>9681704.560000001</v>
       </c>
     </row>
     <row r="12">
@@ -2991,7 +2991,7 @@
         </is>
       </c>
       <c r="B12" s="9" t="n">
-        <v>11772645.38</v>
+        <v>11771930.38</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         </is>
       </c>
       <c r="E12" s="9" t="n">
-        <v>25502646.97</v>
+        <v>25511738.97</v>
       </c>
     </row>
     <row r="13">
@@ -3009,7 +3009,7 @@
         </is>
       </c>
       <c r="B13" s="9" t="n">
-        <v>45317274.98</v>
+        <v>45316278.98</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         </is>
       </c>
       <c r="E13" s="9" t="n">
-        <v>32696955.59</v>
+        <v>32697532.59</v>
       </c>
     </row>
     <row r="14">
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="B14" s="9" t="n">
-        <v>20238471.87</v>
+        <v>20237854.87</v>
       </c>
     </row>
     <row r="15">
@@ -3037,7 +3037,7 @@
         </is>
       </c>
       <c r="B15" s="9" t="n">
-        <v>40380454.9</v>
+        <v>40378571.9</v>
       </c>
     </row>
     <row r="16">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="B16" s="9" t="n">
-        <v>8727824.92</v>
+        <v>8726767.92</v>
       </c>
     </row>
     <row r="17">
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="B17" s="9" t="n">
-        <v>108605687.71</v>
+        <v>108604639.71</v>
       </c>
     </row>
     <row r="18">
@@ -3067,7 +3067,7 @@
         </is>
       </c>
       <c r="B18" s="9" t="n">
-        <v>68483777.34</v>
+        <v>68482624.34</v>
       </c>
     </row>
     <row r="19">
@@ -3077,7 +3077,7 @@
         </is>
       </c>
       <c r="B19" s="9" t="n">
-        <v>899782.76</v>
+        <v>899309.76</v>
       </c>
     </row>
     <row r="20">
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="B20" s="9" t="n">
-        <v>14468349.06</v>
+        <v>14467715.06</v>
       </c>
     </row>
     <row r="21">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="B21" s="9" t="n">
-        <v>276280660.45</v>
+        <v>276332105.45</v>
       </c>
     </row>
     <row r="22"/>
@@ -3228,53 +3228,49 @@
           <t>00001</t>
         </is>
       </c>
-      <c r="B37" s="11" t="n">
-        <v>13685349</v>
-      </c>
+      <c r="B37" s="2" t="inlineStr"/>
       <c r="C37" s="11" t="n">
-        <v>186042850</v>
+        <v>218836110</v>
       </c>
       <c r="D37" s="11" t="n">
-        <v>108544250</v>
-      </c>
-      <c r="E37" s="11" t="n">
-        <v>66029190</v>
-      </c>
+        <v>43285820</v>
+      </c>
+      <c r="E37" s="2" t="inlineStr"/>
       <c r="F37" s="11" t="n">
-        <v>7321955.1</v>
+        <v>40151802</v>
       </c>
       <c r="G37" s="11" t="n">
-        <v>46449731</v>
+        <v>46449011</v>
       </c>
       <c r="H37" s="11" t="n">
-        <v>92992236</v>
+        <v>92991278</v>
       </c>
       <c r="I37" s="11" t="n">
-        <v>48530302</v>
-      </c>
-      <c r="J37" s="11" t="n">
-        <v>9761842.1</v>
-      </c>
-      <c r="K37" s="2" t="inlineStr"/>
-      <c r="L37" s="11" t="n">
-        <v>45317275</v>
-      </c>
+        <v>74031644</v>
+      </c>
+      <c r="J37" s="2" t="inlineStr"/>
+      <c r="K37" s="11" t="n">
+        <v>7936165</v>
+      </c>
+      <c r="L37" s="2" t="inlineStr"/>
       <c r="M37" s="2" t="inlineStr"/>
       <c r="N37" s="11" t="n">
-        <v>40380455</v>
-      </c>
-      <c r="O37" s="2" t="inlineStr"/>
-      <c r="P37" s="2" t="inlineStr"/>
+        <v>40378572</v>
+      </c>
+      <c r="O37" s="11" t="n">
+        <v>8726767.9</v>
+      </c>
+      <c r="P37" s="11" t="n">
+        <v>108604640</v>
+      </c>
       <c r="Q37" s="11" t="n">
-        <v>68483777</v>
+        <v>53835471</v>
       </c>
       <c r="R37" s="2" t="inlineStr"/>
-      <c r="S37" s="11" t="n">
-        <v>1679059.2</v>
-      </c>
+      <c r="S37" s="2" t="inlineStr"/>
       <c r="T37" s="2" t="inlineStr"/>
       <c r="U37" s="7" t="n">
-        <v>735218276.45</v>
+        <v>735227274.45</v>
       </c>
     </row>
     <row r="38">
@@ -3284,10 +3280,10 @@
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr"/>
-      <c r="C38" s="11" t="n">
-        <v>28148619</v>
-      </c>
-      <c r="D38" s="2" t="inlineStr"/>
+      <c r="C38" s="2" t="inlineStr"/>
+      <c r="D38" s="11" t="n">
+        <v>35099276</v>
+      </c>
       <c r="E38" s="2" t="inlineStr"/>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr"/>
@@ -3298,16 +3294,14 @@
       <c r="L38" s="2" t="inlineStr"/>
       <c r="M38" s="2" t="inlineStr"/>
       <c r="N38" s="2" t="inlineStr"/>
-      <c r="O38" s="11" t="n">
-        <v>6948956</v>
-      </c>
+      <c r="O38" s="2" t="inlineStr"/>
       <c r="P38" s="2" t="inlineStr"/>
       <c r="Q38" s="2" t="inlineStr"/>
       <c r="R38" s="2" t="inlineStr"/>
       <c r="S38" s="2" t="inlineStr"/>
       <c r="T38" s="2" t="inlineStr"/>
       <c r="U38" s="7" t="n">
-        <v>35097575.16</v>
+        <v>35099276.16</v>
       </c>
     </row>
     <row r="39">
@@ -3316,7 +3310,9 @@
           <t>00024</t>
         </is>
       </c>
-      <c r="B39" s="2" t="inlineStr"/>
+      <c r="B39" s="11" t="n">
+        <v>42940092</v>
+      </c>
       <c r="C39" s="2" t="inlineStr"/>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="inlineStr"/>
@@ -3327,20 +3323,16 @@
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr"/>
-      <c r="M39" s="11" t="n">
-        <v>20238472</v>
-      </c>
+      <c r="M39" s="2" t="inlineStr"/>
       <c r="N39" s="2" t="inlineStr"/>
       <c r="O39" s="2" t="inlineStr"/>
       <c r="P39" s="2" t="inlineStr"/>
       <c r="Q39" s="2" t="inlineStr"/>
       <c r="R39" s="2" t="inlineStr"/>
       <c r="S39" s="2" t="inlineStr"/>
-      <c r="T39" s="11" t="n">
-        <v>22695166</v>
-      </c>
+      <c r="T39" s="2" t="inlineStr"/>
       <c r="U39" s="7" t="n">
-        <v>42933637.38</v>
+        <v>42940092.38</v>
       </c>
     </row>
     <row r="40">
@@ -3349,33 +3341,41 @@
           <t>00031</t>
         </is>
       </c>
-      <c r="B40" s="2" t="inlineStr"/>
+      <c r="B40" s="11" t="n">
+        <v>13121964</v>
+      </c>
       <c r="C40" s="2" t="inlineStr"/>
       <c r="D40" s="2" t="inlineStr"/>
-      <c r="E40" s="2" t="inlineStr"/>
-      <c r="F40" s="11" t="n">
-        <v>32830342</v>
-      </c>
+      <c r="E40" s="11" t="n">
+        <v>66027827</v>
+      </c>
+      <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr"/>
       <c r="H40" s="2" t="inlineStr"/>
       <c r="I40" s="2" t="inlineStr"/>
-      <c r="J40" s="2" t="inlineStr"/>
+      <c r="J40" s="11" t="n">
+        <v>9761021.1</v>
+      </c>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr"/>
       <c r="M40" s="2" t="inlineStr"/>
       <c r="N40" s="2" t="inlineStr"/>
       <c r="O40" s="2" t="inlineStr"/>
-      <c r="P40" s="11" t="n">
-        <v>93931341</v>
-      </c>
-      <c r="Q40" s="2" t="inlineStr"/>
-      <c r="R40" s="2" t="inlineStr"/>
-      <c r="S40" s="2" t="inlineStr"/>
+      <c r="P40" s="2" t="inlineStr"/>
+      <c r="Q40" s="11" t="n">
+        <v>4965449</v>
+      </c>
+      <c r="R40" s="11" t="n">
+        <v>899309.76</v>
+      </c>
+      <c r="S40" s="11" t="n">
+        <v>14467715</v>
+      </c>
       <c r="T40" s="11" t="n">
-        <v>253585490</v>
+        <v>271107670</v>
       </c>
       <c r="U40" s="7" t="n">
-        <v>380347177.42</v>
+        <v>380350957.42</v>
       </c>
     </row>
     <row r="41">
@@ -3393,24 +3393,22 @@
       <c r="H41" s="2" t="inlineStr"/>
       <c r="I41" s="2" t="inlineStr"/>
       <c r="J41" s="2" t="inlineStr"/>
-      <c r="K41" s="11" t="n">
-        <v>11772645</v>
-      </c>
+      <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr"/>
-      <c r="M41" s="2" t="inlineStr"/>
+      <c r="M41" s="11" t="n">
+        <v>20237855</v>
+      </c>
       <c r="N41" s="2" t="inlineStr"/>
       <c r="O41" s="2" t="inlineStr"/>
       <c r="P41" s="2" t="inlineStr"/>
       <c r="Q41" s="2" t="inlineStr"/>
-      <c r="R41" s="11" t="n">
-        <v>899782.76</v>
-      </c>
-      <c r="S41" s="11" t="n">
-        <v>12789290</v>
-      </c>
-      <c r="T41" s="2" t="inlineStr"/>
+      <c r="R41" s="2" t="inlineStr"/>
+      <c r="S41" s="2" t="inlineStr"/>
+      <c r="T41" s="11" t="n">
+        <v>5224434.1</v>
+      </c>
       <c r="U41" s="7" t="n">
-        <v>25461717.99</v>
+        <v>25462288.99</v>
       </c>
     </row>
     <row r="42">
@@ -3420,10 +3418,10 @@
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr"/>
-      <c r="C42" s="11" t="n">
-        <v>4645680.5</v>
-      </c>
-      <c r="D42" s="2" t="inlineStr"/>
+      <c r="C42" s="2" t="inlineStr"/>
+      <c r="D42" s="11" t="n">
+        <v>4646462.5</v>
+      </c>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr"/>
@@ -3441,7 +3439,7 @@
       <c r="S42" s="2" t="inlineStr"/>
       <c r="T42" s="2" t="inlineStr"/>
       <c r="U42" s="7" t="n">
-        <v>4645680.54</v>
+        <v>4646462.54</v>
       </c>
     </row>
     <row r="43">
@@ -3459,20 +3457,22 @@
       <c r="H43" s="2" t="inlineStr"/>
       <c r="I43" s="2" t="inlineStr"/>
       <c r="J43" s="2" t="inlineStr"/>
-      <c r="K43" s="2" t="inlineStr"/>
-      <c r="L43" s="2" t="inlineStr"/>
+      <c r="K43" s="11" t="n">
+        <v>2056582.4</v>
+      </c>
+      <c r="L43" s="11" t="n">
+        <v>12618746</v>
+      </c>
       <c r="M43" s="2" t="inlineStr"/>
       <c r="N43" s="2" t="inlineStr"/>
       <c r="O43" s="2" t="inlineStr"/>
-      <c r="P43" s="11" t="n">
-        <v>14674347</v>
-      </c>
+      <c r="P43" s="2" t="inlineStr"/>
       <c r="Q43" s="2" t="inlineStr"/>
       <c r="R43" s="2" t="inlineStr"/>
       <c r="S43" s="2" t="inlineStr"/>
       <c r="T43" s="2" t="inlineStr"/>
       <c r="U43" s="7" t="n">
-        <v>14674346.78</v>
+        <v>14675328.78</v>
       </c>
     </row>
     <row r="44">
@@ -3490,20 +3490,20 @@
       <c r="H44" s="2" t="inlineStr"/>
       <c r="I44" s="2" t="inlineStr"/>
       <c r="J44" s="2" t="inlineStr"/>
-      <c r="K44" s="2" t="inlineStr"/>
+      <c r="K44" s="11" t="n">
+        <v>1779183</v>
+      </c>
       <c r="L44" s="2" t="inlineStr"/>
       <c r="M44" s="2" t="inlineStr"/>
       <c r="N44" s="2" t="inlineStr"/>
-      <c r="O44" s="11" t="n">
-        <v>1778869</v>
-      </c>
+      <c r="O44" s="2" t="inlineStr"/>
       <c r="P44" s="2" t="inlineStr"/>
       <c r="Q44" s="2" t="inlineStr"/>
       <c r="R44" s="2" t="inlineStr"/>
       <c r="S44" s="2" t="inlineStr"/>
       <c r="T44" s="2" t="inlineStr"/>
       <c r="U44" s="7" t="n">
-        <v>1778868.97</v>
+        <v>1779182.97</v>
       </c>
     </row>
     <row r="45">
@@ -3512,9 +3512,7 @@
           <t>00043</t>
         </is>
       </c>
-      <c r="B45" s="11" t="n">
-        <v>9680706.6</v>
-      </c>
+      <c r="B45" s="2" t="inlineStr"/>
       <c r="C45" s="2" t="inlineStr"/>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="inlineStr"/>
@@ -3529,12 +3527,14 @@
       <c r="N45" s="2" t="inlineStr"/>
       <c r="O45" s="2" t="inlineStr"/>
       <c r="P45" s="2" t="inlineStr"/>
-      <c r="Q45" s="2" t="inlineStr"/>
+      <c r="Q45" s="11" t="n">
+        <v>9681704.6</v>
+      </c>
       <c r="R45" s="2" t="inlineStr"/>
       <c r="S45" s="2" t="inlineStr"/>
       <c r="T45" s="2" t="inlineStr"/>
       <c r="U45" s="7" t="n">
-        <v>9680706.560000001</v>
+        <v>9681704.560000001</v>
       </c>
     </row>
     <row r="46">
@@ -3545,14 +3545,14 @@
       </c>
       <c r="B46" s="2" t="inlineStr"/>
       <c r="C46" s="2" t="inlineStr"/>
-      <c r="D46" s="2" t="inlineStr"/>
+      <c r="D46" s="11" t="n">
+        <v>25511739</v>
+      </c>
       <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr"/>
       <c r="H46" s="2" t="inlineStr"/>
-      <c r="I46" s="11" t="n">
-        <v>25502647</v>
-      </c>
+      <c r="I46" s="2" t="inlineStr"/>
       <c r="J46" s="2" t="inlineStr"/>
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr"/>
@@ -3565,7 +3565,7 @@
       <c r="S46" s="2" t="inlineStr"/>
       <c r="T46" s="2" t="inlineStr"/>
       <c r="U46" s="7" t="n">
-        <v>25502646.97</v>
+        <v>25511738.97</v>
       </c>
     </row>
     <row r="47">
@@ -3574,9 +3574,7 @@
           <t>00056</t>
         </is>
       </c>
-      <c r="B47" s="11" t="n">
-        <v>32696956</v>
-      </c>
+      <c r="B47" s="2" t="inlineStr"/>
       <c r="C47" s="2" t="inlineStr"/>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="inlineStr"/>
@@ -3586,7 +3584,9 @@
       <c r="I47" s="2" t="inlineStr"/>
       <c r="J47" s="2" t="inlineStr"/>
       <c r="K47" s="2" t="inlineStr"/>
-      <c r="L47" s="2" t="inlineStr"/>
+      <c r="L47" s="11" t="n">
+        <v>32697533</v>
+      </c>
       <c r="M47" s="2" t="inlineStr"/>
       <c r="N47" s="2" t="inlineStr"/>
       <c r="O47" s="2" t="inlineStr"/>
@@ -3596,7 +3596,7 @@
       <c r="S47" s="2" t="inlineStr"/>
       <c r="T47" s="2" t="inlineStr"/>
       <c r="U47" s="7" t="n">
-        <v>32696955.59</v>
+        <v>32697532.59</v>
       </c>
     </row>
     <row r="48">
@@ -3606,61 +3606,61 @@
         </is>
       </c>
       <c r="B48" s="7" t="n">
-        <v>56063011.25</v>
+        <v>56062056.25</v>
       </c>
       <c r="C48" s="7" t="n">
-        <v>218837153.39</v>
+        <v>218836105.39</v>
       </c>
       <c r="D48" s="7" t="n">
-        <v>108544251.58</v>
+        <v>108543297.58</v>
       </c>
       <c r="E48" s="7" t="n">
-        <v>66029190.31</v>
+        <v>66027827.31</v>
       </c>
       <c r="F48" s="7" t="n">
-        <v>40152296.68</v>
+        <v>40151801.68</v>
       </c>
       <c r="G48" s="7" t="n">
-        <v>46449730.67</v>
+        <v>46449010.67</v>
       </c>
       <c r="H48" s="7" t="n">
-        <v>92992235.83</v>
+        <v>92991277.83</v>
       </c>
       <c r="I48" s="7" t="n">
-        <v>74032948.63</v>
+        <v>74031643.63</v>
       </c>
       <c r="J48" s="7" t="n">
-        <v>9761842.1</v>
+        <v>9761021.1</v>
       </c>
       <c r="K48" s="7" t="n">
-        <v>11772645.38</v>
+        <v>11771930.38</v>
       </c>
       <c r="L48" s="7" t="n">
-        <v>45317274.98</v>
+        <v>45316278.98</v>
       </c>
       <c r="M48" s="7" t="n">
-        <v>20238471.87</v>
+        <v>20237854.87</v>
       </c>
       <c r="N48" s="7" t="n">
-        <v>40380454.9</v>
+        <v>40378571.9</v>
       </c>
       <c r="O48" s="7" t="n">
-        <v>8727824.92</v>
+        <v>8726767.92</v>
       </c>
       <c r="P48" s="7" t="n">
-        <v>108605687.71</v>
+        <v>108604639.71</v>
       </c>
       <c r="Q48" s="7" t="n">
-        <v>68483777.34</v>
+        <v>68482624.34</v>
       </c>
       <c r="R48" s="7" t="n">
-        <v>899782.76</v>
+        <v>899309.76</v>
       </c>
       <c r="S48" s="7" t="n">
-        <v>14468349.06</v>
+        <v>14467715.06</v>
       </c>
       <c r="T48" s="7" t="n">
-        <v>276280660.45</v>
+        <v>276332105.45</v>
       </c>
     </row>
   </sheetData>
@@ -3885,91 +3885,91 @@
         <v>0</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" s="13" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H4" s="13" t="n">
-        <v>32</v>
+        <v>557</v>
       </c>
       <c r="I4" s="13" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J4" s="13" t="n">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="K4" s="13" t="n">
-        <v>31</v>
+        <v>307</v>
       </c>
       <c r="L4" s="13" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="M4" s="13" t="n">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="N4" s="13" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="O4" s="13" t="n">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="P4" s="13" t="n">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="Q4" s="13" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R4" s="13" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="S4" s="13" t="n">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="T4" s="13" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U4" s="13" t="n">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="V4" s="13" t="n">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="W4" s="13" t="n">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="X4" s="13" t="n">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="Y4" s="13" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="Z4" s="13" t="n">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="AA4" s="13" t="n">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="AB4" s="13" t="n">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="AC4" s="13" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AD4" s="13" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AE4" s="13" t="n">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -3979,94 +3979,94 @@
         </is>
       </c>
       <c r="B5" s="13" t="n">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="C5" s="12" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="G5" s="13" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H5" s="13" t="n">
-        <v>50</v>
+        <v>557</v>
       </c>
       <c r="I5" s="13" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="J5" s="13" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K5" s="13" t="n">
-        <v>33</v>
+        <v>307</v>
       </c>
       <c r="L5" s="13" t="n">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="M5" s="13" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="N5" s="13" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="O5" s="13" t="n">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="P5" s="13" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="13" t="n">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="R5" s="13" t="n">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="S5" s="13" t="n">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="T5" s="13" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="U5" s="13" t="n">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="V5" s="13" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="W5" s="13" t="n">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="X5" s="13" t="n">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="Y5" s="13" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="Z5" s="13" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="AA5" s="13" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="AB5" s="13" t="n">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="AC5" s="13" t="n">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="AD5" s="13" t="n">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="AE5" s="13" t="n">
-        <v>92</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
@@ -4076,94 +4076,94 @@
         </is>
       </c>
       <c r="B6" s="13" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="D6" s="12" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="G6" s="13" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H6" s="13" t="n">
-        <v>91</v>
+        <v>557</v>
       </c>
       <c r="I6" s="13" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J6" s="13" t="n">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="K6" s="13" t="n">
-        <v>44</v>
+        <v>307</v>
       </c>
       <c r="L6" s="13" t="n">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="M6" s="13" t="n">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="N6" s="13" t="n">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="O6" s="13" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P6" s="13" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q6" s="13" t="n">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="R6" s="13" t="n">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="S6" s="13" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="T6" s="13" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="U6" s="13" t="n">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="V6" s="13" t="n">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="W6" s="13" t="n">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="X6" s="13" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Y6" s="13" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="Z6" s="13" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AA6" s="13" t="n">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="AB6" s="13" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AC6" s="13" t="n">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="AD6" s="13" t="n">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="AE6" s="13" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -4173,94 +4173,94 @@
         </is>
       </c>
       <c r="B7" s="13" t="n">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E7" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G7" s="13" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H7" s="13" t="n">
-        <v>70</v>
+        <v>557</v>
       </c>
       <c r="I7" s="13" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="J7" s="13" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="K7" s="13" t="n">
-        <v>41</v>
+        <v>307</v>
       </c>
       <c r="L7" s="13" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="M7" s="13" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="N7" s="13" t="n">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="O7" s="13" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P7" s="13" t="n">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="Q7" s="13" t="n">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="R7" s="13" t="n">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="S7" s="13" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="T7" s="13" t="n">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="U7" s="13" t="n">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="V7" s="13" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="W7" s="13" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="X7" s="13" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="Y7" s="13" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Z7" s="13" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AA7" s="13" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="AB7" s="13" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="AC7" s="13" t="n">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="AD7" s="13" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AE7" s="13" t="n">
-        <v>92</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -4270,94 +4270,94 @@
         </is>
       </c>
       <c r="B8" s="13" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F8" s="12" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="13" t="n">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="H8" s="13" t="n">
-        <v>33</v>
+        <v>557</v>
       </c>
       <c r="I8" s="13" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J8" s="13" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K8" s="13" t="n">
-        <v>72</v>
+        <v>307</v>
       </c>
       <c r="L8" s="13" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="M8" s="13" t="n">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="N8" s="13" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="O8" s="13" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="P8" s="13" t="n">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="13" t="n">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="R8" s="13" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="S8" s="13" t="n">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="T8" s="13" t="n">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="U8" s="13" t="n">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="V8" s="13" t="n">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="W8" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="X8" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="Y8" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="Z8" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="AA8" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="AB8" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="AC8" s="13" t="n">
         <v>86</v>
       </c>
-      <c r="X8" s="13" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y8" s="13" t="n">
-        <v>57</v>
-      </c>
-      <c r="Z8" s="13" t="n">
-        <v>57</v>
-      </c>
-      <c r="AA8" s="13" t="n">
-        <v>73</v>
-      </c>
-      <c r="AB8" s="13" t="n">
-        <v>59</v>
-      </c>
-      <c r="AC8" s="13" t="n">
-        <v>91</v>
-      </c>
       <c r="AD8" s="13" t="n">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="AE8" s="13" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
@@ -4367,94 +4367,94 @@
         </is>
       </c>
       <c r="B9" s="13" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="G9" s="12" t="n">
         <v>0</v>
       </c>
       <c r="H9" s="13" t="n">
-        <v>56</v>
+        <v>557</v>
       </c>
       <c r="I9" s="13" t="n">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="J9" s="13" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="K9" s="13" t="n">
-        <v>99</v>
+        <v>307</v>
       </c>
       <c r="L9" s="13" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="M9" s="13" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="N9" s="13" t="n">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="O9" s="13" t="n">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="P9" s="13" t="n">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="13" t="n">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="R9" s="13" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="S9" s="13" t="n">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="T9" s="13" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="U9" s="13" t="n">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="V9" s="13" t="n">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="W9" s="13" t="n">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="X9" s="13" t="n">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="Y9" s="13" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="Z9" s="13" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="AA9" s="13" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="AB9" s="13" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="AC9" s="13" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD9" s="13" t="n">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="AE9" s="13" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
@@ -4464,94 +4464,94 @@
         </is>
       </c>
       <c r="B10" s="13" t="n">
-        <v>32</v>
+        <v>557</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>50</v>
+        <v>557</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>91</v>
+        <v>557</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>70</v>
+        <v>557</v>
       </c>
       <c r="F10" s="13" t="n">
-        <v>33</v>
+        <v>557</v>
       </c>
       <c r="G10" s="13" t="n">
-        <v>56</v>
+        <v>557</v>
       </c>
       <c r="H10" s="12" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="13" t="n">
-        <v>31</v>
+        <v>557</v>
       </c>
       <c r="J10" s="13" t="n">
-        <v>83</v>
+        <v>557</v>
       </c>
       <c r="K10" s="13" t="n">
-        <v>30</v>
+        <v>714</v>
       </c>
       <c r="L10" s="13" t="n">
-        <v>48</v>
+        <v>557</v>
       </c>
       <c r="M10" s="13" t="n">
-        <v>31</v>
+        <v>557</v>
       </c>
       <c r="N10" s="13" t="n">
-        <v>82</v>
+        <v>557</v>
       </c>
       <c r="O10" s="13" t="n">
-        <v>73</v>
+        <v>557</v>
       </c>
       <c r="P10" s="13" t="n">
-        <v>61</v>
+        <v>557</v>
       </c>
       <c r="Q10" s="13" t="n">
-        <v>99</v>
+        <v>557</v>
       </c>
       <c r="R10" s="13" t="n">
-        <v>61</v>
+        <v>557</v>
       </c>
       <c r="S10" s="13" t="n">
-        <v>97</v>
+        <v>557</v>
       </c>
       <c r="T10" s="13" t="n">
-        <v>84</v>
+        <v>557</v>
       </c>
       <c r="U10" s="13" t="n">
-        <v>85</v>
+        <v>557</v>
       </c>
       <c r="V10" s="13" t="n">
-        <v>46</v>
+        <v>557</v>
       </c>
       <c r="W10" s="13" t="n">
-        <v>67</v>
+        <v>557</v>
       </c>
       <c r="X10" s="13" t="n">
-        <v>53</v>
+        <v>557</v>
       </c>
       <c r="Y10" s="13" t="n">
-        <v>98</v>
+        <v>557</v>
       </c>
       <c r="Z10" s="13" t="n">
-        <v>99</v>
+        <v>557</v>
       </c>
       <c r="AA10" s="13" t="n">
-        <v>40</v>
+        <v>557</v>
       </c>
       <c r="AB10" s="13" t="n">
-        <v>45</v>
+        <v>557</v>
       </c>
       <c r="AC10" s="13" t="n">
-        <v>88</v>
+        <v>483</v>
       </c>
       <c r="AD10" s="13" t="n">
-        <v>99</v>
+        <v>486</v>
       </c>
       <c r="AE10" s="13" t="n">
-        <v>32</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11">
@@ -4561,25 +4561,25 @@
         </is>
       </c>
       <c r="B11" s="13" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" s="13" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D11" s="13" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E11" s="13" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F11" s="13" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G11" s="13" t="n">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="H11" s="13" t="n">
-        <v>31</v>
+        <v>557</v>
       </c>
       <c r="I11" s="12" t="n">
         <v>0</v>
@@ -4588,67 +4588,67 @@
         <v>49</v>
       </c>
       <c r="K11" s="13" t="n">
-        <v>88</v>
+        <v>307</v>
       </c>
       <c r="L11" s="13" t="n">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="M11" s="13" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N11" s="13" t="n">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="O11" s="13" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P11" s="13" t="n">
         <v>49</v>
       </c>
       <c r="Q11" s="13" t="n">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="R11" s="13" t="n">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="S11" s="13" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="T11" s="13" t="n">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="U11" s="13" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="W11" s="13" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="X11" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="Y11" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="Z11" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="AA11" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="AB11" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="AC11" s="13" t="n">
         <v>86</v>
       </c>
-      <c r="Y11" s="13" t="n">
-        <v>79</v>
-      </c>
-      <c r="Z11" s="13" t="n">
-        <v>52</v>
-      </c>
-      <c r="AA11" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB11" s="13" t="n">
-        <v>71</v>
-      </c>
-      <c r="AC11" s="13" t="n">
-        <v>36</v>
-      </c>
       <c r="AD11" s="13" t="n">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>89</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
@@ -4658,25 +4658,25 @@
         </is>
       </c>
       <c r="B12" s="13" t="n">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="C12" s="13" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D12" s="13" t="n">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="E12" s="13" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F12" s="13" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G12" s="13" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H12" s="13" t="n">
-        <v>83</v>
+        <v>557</v>
       </c>
       <c r="I12" s="13" t="n">
         <v>49</v>
@@ -4685,67 +4685,67 @@
         <v>0</v>
       </c>
       <c r="K12" s="13" t="n">
-        <v>31</v>
+        <v>307</v>
       </c>
       <c r="L12" s="13" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="M12" s="13" t="n">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="N12" s="13" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="O12" s="13" t="n">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="P12" s="13" t="n">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="Q12" s="13" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="R12" s="13" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="S12" s="13" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T12" s="13" t="n">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="U12" s="13" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="V12" s="13" t="n">
         <v>49</v>
       </c>
       <c r="W12" s="13" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="X12" s="13" t="n">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="Y12" s="13" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="Z12" s="13" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AA12" s="13" t="n">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="AB12" s="13" t="n">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="AC12" s="13" t="n">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="AD12" s="13" t="n">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="AE12" s="13" t="n">
-        <v>95</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
@@ -4755,94 +4755,94 @@
         </is>
       </c>
       <c r="B13" s="13" t="n">
-        <v>31</v>
+        <v>307</v>
       </c>
       <c r="C13" s="13" t="n">
-        <v>33</v>
+        <v>307</v>
       </c>
       <c r="D13" s="13" t="n">
-        <v>44</v>
+        <v>307</v>
       </c>
       <c r="E13" s="13" t="n">
-        <v>41</v>
+        <v>307</v>
       </c>
       <c r="F13" s="13" t="n">
-        <v>72</v>
+        <v>307</v>
       </c>
       <c r="G13" s="13" t="n">
-        <v>99</v>
+        <v>307</v>
       </c>
       <c r="H13" s="13" t="n">
-        <v>30</v>
+        <v>714</v>
       </c>
       <c r="I13" s="13" t="n">
-        <v>88</v>
+        <v>307</v>
       </c>
       <c r="J13" s="13" t="n">
-        <v>31</v>
+        <v>307</v>
       </c>
       <c r="K13" s="12" t="n">
         <v>0</v>
       </c>
       <c r="L13" s="13" t="n">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="M13" s="13" t="n">
-        <v>64</v>
+        <v>307</v>
       </c>
       <c r="N13" s="13" t="n">
-        <v>90</v>
+        <v>307</v>
       </c>
       <c r="O13" s="13" t="n">
-        <v>70</v>
+        <v>307</v>
       </c>
       <c r="P13" s="13" t="n">
-        <v>62</v>
+        <v>307</v>
       </c>
       <c r="Q13" s="13" t="n">
-        <v>97</v>
+        <v>307</v>
       </c>
       <c r="R13" s="13" t="n">
-        <v>62</v>
+        <v>307</v>
       </c>
       <c r="S13" s="13" t="n">
-        <v>43</v>
+        <v>307</v>
       </c>
       <c r="T13" s="13" t="n">
-        <v>50</v>
+        <v>307</v>
       </c>
       <c r="U13" s="13" t="n">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>49</v>
+        <v>307</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>36</v>
+        <v>307</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>96</v>
+        <v>307</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>46</v>
+        <v>307</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>62</v>
+        <v>307</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>88</v>
+        <v>379</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>51</v>
+        <v>371</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>59</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14">
@@ -4852,94 +4852,94 @@
         </is>
       </c>
       <c r="B14" s="13" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C14" s="13" t="n">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="D14" s="13" t="n">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="E14" s="13" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F14" s="13" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G14" s="13" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H14" s="13" t="n">
-        <v>48</v>
+        <v>557</v>
       </c>
       <c r="I14" s="13" t="n">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="J14" s="13" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="K14" s="13" t="n">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="L14" s="12" t="n">
         <v>0</v>
       </c>
       <c r="M14" s="13" t="n">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="N14" s="13" t="n">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="O14" s="13" t="n">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="P14" s="13" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="Q14" s="13" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="R14" s="13" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="S14" s="13" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T14" s="13" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="U14" s="13" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="V14" s="13" t="n">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="W14" s="13" t="n">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="X14" s="13" t="n">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="Y14" s="13" t="n">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="Z14" s="13" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA14" s="13" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="AB14" s="13" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="AC14" s="13" t="n">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AD14" s="13" t="n">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AE14" s="13" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15">
@@ -4949,94 +4949,94 @@
         </is>
       </c>
       <c r="B15" s="13" t="n">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C15" s="13" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D15" s="13" t="n">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="E15" s="13" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F15" s="13" t="n">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="G15" s="13" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H15" s="13" t="n">
-        <v>31</v>
+        <v>557</v>
       </c>
       <c r="I15" s="13" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J15" s="13" t="n">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="K15" s="13" t="n">
-        <v>64</v>
+        <v>307</v>
       </c>
       <c r="L15" s="13" t="n">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="M15" s="12" t="n">
         <v>0</v>
       </c>
       <c r="N15" s="13" t="n">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="O15" s="13" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="P15" s="13" t="n">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="Q15" s="13" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="R15" s="13" t="n">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="S15" s="13" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="T15" s="13" t="n">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="U15" s="13" t="n">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="V15" s="13" t="n">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="W15" s="13" t="n">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="X15" s="13" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="Y15" s="13" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="Z15" s="13" t="n">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="AA15" s="13" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AB15" s="13" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="AC15" s="13" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AD15" s="13" t="n">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="AE15" s="13" t="n">
-        <v>96</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16">
@@ -5046,94 +5046,94 @@
         </is>
       </c>
       <c r="B16" s="13" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C16" s="13" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D16" s="13" t="n">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="E16" s="13" t="n">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="F16" s="13" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G16" s="13" t="n">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="H16" s="13" t="n">
-        <v>82</v>
+        <v>557</v>
       </c>
       <c r="I16" s="13" t="n">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="J16" s="13" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="K16" s="13" t="n">
-        <v>90</v>
+        <v>307</v>
       </c>
       <c r="L16" s="13" t="n">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="M16" s="13" t="n">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="N16" s="12" t="n">
         <v>0</v>
       </c>
       <c r="O16" s="13" t="n">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="P16" s="13" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q16" s="13" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="R16" s="13" t="n">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="S16" s="13" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T16" s="13" t="n">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="U16" s="13" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="V16" s="13" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="W16" s="13" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="X16" s="13" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="Y16" s="13" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Z16" s="13" t="n">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AA16" s="13" t="n">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="AB16" s="13" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="AC16" s="13" t="n">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="AD16" s="13" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="AE16" s="13" t="n">
-        <v>79</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
@@ -5143,94 +5143,94 @@
         </is>
       </c>
       <c r="B17" s="13" t="n">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="C17" s="13" t="n">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="D17" s="13" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E17" s="13" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F17" s="13" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="G17" s="13" t="n">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="H17" s="13" t="n">
-        <v>73</v>
+        <v>557</v>
       </c>
       <c r="I17" s="13" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J17" s="13" t="n">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="K17" s="13" t="n">
-        <v>70</v>
+        <v>307</v>
       </c>
       <c r="L17" s="13" t="n">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="M17" s="13" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="N17" s="13" t="n">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="O17" s="12" t="n">
         <v>0</v>
       </c>
       <c r="P17" s="13" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q17" s="13" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="R17" s="13" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="S17" s="13" t="n">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="T17" s="13" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="U17" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="V17" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="W17" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="X17" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="Y17" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="Z17" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="AA17" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="AB17" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="AC17" s="13" t="n">
         <v>86</v>
       </c>
-      <c r="V17" s="13" t="n">
-        <v>65</v>
-      </c>
-      <c r="W17" s="13" t="n">
-        <v>74</v>
-      </c>
-      <c r="X17" s="13" t="n">
-        <v>49</v>
-      </c>
-      <c r="Y17" s="13" t="n">
-        <v>94</v>
-      </c>
-      <c r="Z17" s="13" t="n">
-        <v>37</v>
-      </c>
-      <c r="AA17" s="13" t="n">
-        <v>45</v>
-      </c>
-      <c r="AB17" s="13" t="n">
-        <v>43</v>
-      </c>
-      <c r="AC17" s="13" t="n">
-        <v>44</v>
-      </c>
       <c r="AD17" s="13" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="AE17" s="13" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
@@ -5240,94 +5240,94 @@
         </is>
       </c>
       <c r="B18" s="13" t="n">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="C18" s="13" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D18" s="13" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E18" s="13" t="n">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="F18" s="13" t="n">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="G18" s="13" t="n">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H18" s="13" t="n">
-        <v>61</v>
+        <v>557</v>
       </c>
       <c r="I18" s="13" t="n">
         <v>49</v>
       </c>
       <c r="J18" s="13" t="n">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="K18" s="13" t="n">
-        <v>62</v>
+        <v>307</v>
       </c>
       <c r="L18" s="13" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="M18" s="13" t="n">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="N18" s="13" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O18" s="13" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P18" s="12" t="n">
         <v>0</v>
       </c>
       <c r="Q18" s="13" t="n">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="R18" s="13" t="n">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="S18" s="13" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="T18" s="13" t="n">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="U18" s="13" t="n">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="V18" s="13" t="n">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="W18" s="13" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X18" s="13" t="n">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="Y18" s="13" t="n">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="Z18" s="13" t="n">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="AA18" s="13" t="n">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="AB18" s="13" t="n">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="AC18" s="13" t="n">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="AD18" s="13" t="n">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="AE18" s="13" t="n">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
@@ -5337,94 +5337,94 @@
         </is>
       </c>
       <c r="B19" s="13" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="13" t="n">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="D19" s="13" t="n">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="E19" s="13" t="n">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="F19" s="13" t="n">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="G19" s="13" t="n">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="H19" s="13" t="n">
-        <v>99</v>
+        <v>557</v>
       </c>
       <c r="I19" s="13" t="n">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="J19" s="13" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="K19" s="13" t="n">
-        <v>97</v>
+        <v>307</v>
       </c>
       <c r="L19" s="13" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="M19" s="13" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="N19" s="13" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="O19" s="13" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P19" s="13" t="n">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="Q19" s="12" t="n">
         <v>0</v>
       </c>
       <c r="R19" s="13" t="n">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="S19" s="13" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="T19" s="13" t="n">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="U19" s="13" t="n">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="V19" s="13" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="W19" s="13" t="n">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="X19" s="13" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="Y19" s="13" t="n">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="Z19" s="13" t="n">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="AA19" s="13" t="n">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="AB19" s="13" t="n">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="AC19" s="13" t="n">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="AD19" s="13" t="n">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="AE19" s="13" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
@@ -5434,94 +5434,94 @@
         </is>
       </c>
       <c r="B20" s="13" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C20" s="13" t="n">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="D20" s="13" t="n">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E20" s="13" t="n">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="F20" s="13" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G20" s="13" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H20" s="13" t="n">
-        <v>61</v>
+        <v>557</v>
       </c>
       <c r="I20" s="13" t="n">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="J20" s="13" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K20" s="13" t="n">
-        <v>62</v>
+        <v>307</v>
       </c>
       <c r="L20" s="13" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="M20" s="13" t="n">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="N20" s="13" t="n">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="O20" s="13" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="P20" s="13" t="n">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="Q20" s="13" t="n">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="R20" s="12" t="n">
         <v>0</v>
       </c>
       <c r="S20" s="13" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T20" s="13" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="U20" s="13" t="n">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="V20" s="13" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W20" s="13" t="n">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="X20" s="13" t="n">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="Y20" s="13" t="n">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="Z20" s="13" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AA20" s="13" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="AB20" s="13" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AC20" s="13" t="n">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="AD20" s="13" t="n">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="AE20" s="13" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21">
@@ -5531,94 +5531,94 @@
         </is>
       </c>
       <c r="B21" s="13" t="n">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="C21" s="13" t="n">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="D21" s="13" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E21" s="13" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F21" s="13" t="n">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G21" s="13" t="n">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="H21" s="13" t="n">
-        <v>97</v>
+        <v>557</v>
       </c>
       <c r="I21" s="13" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="J21" s="13" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21" s="13" t="n">
-        <v>43</v>
+        <v>307</v>
       </c>
       <c r="L21" s="13" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M21" s="13" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N21" s="13" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O21" s="13" t="n">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="P21" s="13" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q21" s="13" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="R21" s="13" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S21" s="12" t="n">
         <v>0</v>
       </c>
       <c r="T21" s="13" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="U21" s="13" t="n">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="V21" s="13" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="W21" s="13" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="X21" s="13" t="n">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="Y21" s="13" t="n">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="Z21" s="13" t="n">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="AA21" s="13" t="n">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="AB21" s="13" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AC21" s="13" t="n">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="AD21" s="13" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="AE21" s="13" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22">
@@ -5628,94 +5628,94 @@
         </is>
       </c>
       <c r="B22" s="13" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22" s="13" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D22" s="13" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E22" s="13" t="n">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="F22" s="13" t="n">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="G22" s="13" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H22" s="13" t="n">
-        <v>84</v>
+        <v>557</v>
       </c>
       <c r="I22" s="13" t="n">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="J22" s="13" t="n">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="K22" s="13" t="n">
-        <v>50</v>
+        <v>307</v>
       </c>
       <c r="L22" s="13" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="M22" s="13" t="n">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="N22" s="13" t="n">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="O22" s="13" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="P22" s="13" t="n">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="Q22" s="13" t="n">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="R22" s="13" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="S22" s="13" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="T22" s="12" t="n">
         <v>0</v>
       </c>
       <c r="U22" s="13" t="n">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="V22" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="W22" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="X22" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="Y22" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="Z22" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="AA22" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="AB22" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="AC22" s="13" t="n">
         <v>86</v>
       </c>
-      <c r="W22" s="13" t="n">
-        <v>58</v>
-      </c>
-      <c r="X22" s="13" t="n">
-        <v>98</v>
-      </c>
-      <c r="Y22" s="13" t="n">
-        <v>76</v>
-      </c>
-      <c r="Z22" s="13" t="n">
-        <v>91</v>
-      </c>
-      <c r="AA22" s="13" t="n">
-        <v>98</v>
-      </c>
-      <c r="AB22" s="13" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC22" s="13" t="n">
-        <v>77</v>
-      </c>
       <c r="AD22" s="13" t="n">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="AE22" s="13" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -5725,94 +5725,94 @@
         </is>
       </c>
       <c r="B23" s="13" t="n">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="C23" s="13" t="n">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D23" s="13" t="n">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="E23" s="13" t="n">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="F23" s="13" t="n">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="G23" s="13" t="n">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="H23" s="13" t="n">
-        <v>85</v>
+        <v>557</v>
       </c>
       <c r="I23" s="13" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="J23" s="13" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="K23" s="13" t="n">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="L23" s="13" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="M23" s="13" t="n">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="N23" s="13" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="O23" s="13" t="n">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="P23" s="13" t="n">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="13" t="n">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="R23" s="13" t="n">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="S23" s="13" t="n">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="T23" s="13" t="n">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="U23" s="12" t="n">
         <v>0</v>
       </c>
       <c r="V23" s="13" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="W23" s="13" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="X23" s="13" t="n">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="Y23" s="13" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="Z23" s="13" t="n">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="AA23" s="13" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AB23" s="13" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC23" s="13" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AD23" s="13" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="AE23" s="13" t="n">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
@@ -5822,94 +5822,94 @@
         </is>
       </c>
       <c r="B24" s="13" t="n">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="C24" s="13" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D24" s="13" t="n">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="E24" s="13" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F24" s="13" t="n">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="G24" s="13" t="n">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="H24" s="13" t="n">
-        <v>46</v>
+        <v>557</v>
       </c>
       <c r="I24" s="13" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="J24" s="13" t="n">
         <v>49</v>
       </c>
       <c r="K24" s="13" t="n">
-        <v>49</v>
+        <v>307</v>
       </c>
       <c r="L24" s="13" t="n">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="M24" s="13" t="n">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="N24" s="13" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="O24" s="13" t="n">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="P24" s="13" t="n">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="Q24" s="13" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="R24" s="13" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S24" s="13" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="T24" s="13" t="n">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="U24" s="13" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V24" s="12" t="n">
         <v>0</v>
       </c>
       <c r="W24" s="13" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="X24" s="13" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Y24" s="13" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Z24" s="13" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="AA24" s="13" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="AB24" s="13" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AC24" s="13" t="n">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="AD24" s="13" t="n">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="AE24" s="13" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25">
@@ -5919,94 +5919,94 @@
         </is>
       </c>
       <c r="B25" s="13" t="n">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C25" s="13" t="n">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D25" s="13" t="n">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="E25" s="13" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F25" s="13" t="n">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="G25" s="13" t="n">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="H25" s="13" t="n">
-        <v>67</v>
+        <v>557</v>
       </c>
       <c r="I25" s="13" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J25" s="13" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K25" s="13" t="n">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="L25" s="13" t="n">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="M25" s="13" t="n">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="N25" s="13" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O25" s="13" t="n">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="P25" s="13" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q25" s="13" t="n">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="R25" s="13" t="n">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="S25" s="13" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="T25" s="13" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="U25" s="13" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="V25" s="13" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="W25" s="12" t="n">
         <v>0</v>
       </c>
       <c r="X25" s="13" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="Y25" s="13" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="Z25" s="13" t="n">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="AA25" s="13" t="n">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="AB25" s="13" t="n">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AC25" s="13" t="n">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="AD25" s="13" t="n">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="AE25" s="13" t="n">
-        <v>94</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26">
@@ -6016,94 +6016,94 @@
         </is>
       </c>
       <c r="B26" s="13" t="n">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="C26" s="13" t="n">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D26" s="13" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E26" s="13" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F26" s="13" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G26" s="13" t="n">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="H26" s="13" t="n">
-        <v>53</v>
+        <v>557</v>
       </c>
       <c r="I26" s="13" t="n">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="J26" s="13" t="n">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="K26" s="13" t="n">
-        <v>36</v>
+        <v>307</v>
       </c>
       <c r="L26" s="13" t="n">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="M26" s="13" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="N26" s="13" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="O26" s="13" t="n">
         <v>49</v>
       </c>
       <c r="P26" s="13" t="n">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="Q26" s="13" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="R26" s="13" t="n">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="S26" s="13" t="n">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="T26" s="13" t="n">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="U26" s="13" t="n">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="V26" s="13" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="W26" s="13" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="X26" s="12" t="n">
         <v>0</v>
       </c>
       <c r="Y26" s="13" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="Z26" s="13" t="n">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="AA26" s="13" t="n">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AB26" s="13" t="n">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="AC26" s="13" t="n">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="AD26" s="13" t="n">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="AE26" s="13" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27">
@@ -6113,94 +6113,94 @@
         </is>
       </c>
       <c r="B27" s="13" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C27" s="13" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D27" s="13" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E27" s="13" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F27" s="13" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G27" s="13" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H27" s="13" t="n">
-        <v>98</v>
+        <v>557</v>
       </c>
       <c r="I27" s="13" t="n">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="J27" s="13" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K27" s="13" t="n">
-        <v>96</v>
+        <v>307</v>
       </c>
       <c r="L27" s="13" t="n">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="M27" s="13" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="N27" s="13" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="O27" s="13" t="n">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="P27" s="13" t="n">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="Q27" s="13" t="n">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="R27" s="13" t="n">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="S27" s="13" t="n">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="T27" s="13" t="n">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="U27" s="13" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="V27" s="13" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W27" s="13" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="X27" s="13" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="Y27" s="12" t="n">
         <v>0</v>
       </c>
       <c r="Z27" s="13" t="n">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="AA27" s="13" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="AB27" s="13" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="AC27" s="13" t="n">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="AD27" s="13" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="AE27" s="13" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28">
@@ -6210,94 +6210,94 @@
         </is>
       </c>
       <c r="B28" s="13" t="n">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="C28" s="13" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D28" s="13" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E28" s="13" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F28" s="13" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G28" s="13" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="H28" s="13" t="n">
-        <v>99</v>
+        <v>557</v>
       </c>
       <c r="I28" s="13" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J28" s="13" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K28" s="13" t="n">
-        <v>46</v>
+        <v>307</v>
       </c>
       <c r="L28" s="13" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M28" s="13" t="n">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="N28" s="13" t="n">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="O28" s="13" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="P28" s="13" t="n">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="13" t="n">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="R28" s="13" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S28" s="13" t="n">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="T28" s="13" t="n">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="U28" s="13" t="n">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="V28" s="13" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="W28" s="13" t="n">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="X28" s="13" t="n">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="Y28" s="13" t="n">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="Z28" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AA28" s="13" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="AB28" s="13" t="n">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="AC28" s="13" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AD28" s="13" t="n">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="AE28" s="13" t="n">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29">
@@ -6307,94 +6307,94 @@
         </is>
       </c>
       <c r="B29" s="13" t="n">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="C29" s="13" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D29" s="13" t="n">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="E29" s="13" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F29" s="13" t="n">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="G29" s="13" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H29" s="13" t="n">
-        <v>40</v>
+        <v>557</v>
       </c>
       <c r="I29" s="13" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="J29" s="13" t="n">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="K29" s="13" t="n">
-        <v>62</v>
+        <v>307</v>
       </c>
       <c r="L29" s="13" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="M29" s="13" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N29" s="13" t="n">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="O29" s="13" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="P29" s="13" t="n">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="Q29" s="13" t="n">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="R29" s="13" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="S29" s="13" t="n">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="T29" s="13" t="n">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="U29" s="13" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="V29" s="13" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="W29" s="13" t="n">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="X29" s="13" t="n">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="Y29" s="13" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="Z29" s="13" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="AA29" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AB29" s="13" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC29" s="13" t="n">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="AD29" s="13" t="n">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="AE29" s="13" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30">
@@ -6404,94 +6404,94 @@
         </is>
       </c>
       <c r="B30" s="13" t="n">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="C30" s="13" t="n">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D30" s="13" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E30" s="13" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F30" s="13" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G30" s="13" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H30" s="13" t="n">
-        <v>45</v>
+        <v>557</v>
       </c>
       <c r="I30" s="13" t="n">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="J30" s="13" t="n">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="K30" s="13" t="n">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="L30" s="13" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="M30" s="13" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="N30" s="13" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="O30" s="13" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="P30" s="13" t="n">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="Q30" s="13" t="n">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="R30" s="13" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="S30" s="13" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="T30" s="13" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="U30" s="13" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V30" s="13" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W30" s="13" t="n">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="X30" s="13" t="n">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="Y30" s="13" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="Z30" s="13" t="n">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="AA30" s="13" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB30" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AC30" s="13" t="n">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AD30" s="13" t="n">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AE30" s="13" t="n">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31">
@@ -6501,94 +6501,94 @@
         </is>
       </c>
       <c r="B31" s="13" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C31" s="13" t="n">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="D31" s="13" t="n">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="E31" s="13" t="n">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="F31" s="13" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G31" s="13" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H31" s="13" t="n">
-        <v>88</v>
+        <v>483</v>
       </c>
       <c r="I31" s="13" t="n">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="J31" s="13" t="n">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="K31" s="13" t="n">
-        <v>88</v>
+        <v>379</v>
       </c>
       <c r="L31" s="13" t="n">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M31" s="13" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N31" s="13" t="n">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="O31" s="13" t="n">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="P31" s="13" t="n">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="Q31" s="13" t="n">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="R31" s="13" t="n">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="S31" s="13" t="n">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="T31" s="13" t="n">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="U31" s="13" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V31" s="13" t="n">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="W31" s="13" t="n">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="X31" s="13" t="n">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="Y31" s="13" t="n">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="Z31" s="13" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AA31" s="13" t="n">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="AB31" s="13" t="n">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AC31" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AD31" s="13" t="n">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="AE31" s="13" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32">
@@ -6598,94 +6598,94 @@
         </is>
       </c>
       <c r="B32" s="13" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="C32" s="13" t="n">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="D32" s="13" t="n">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="E32" s="13" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="F32" s="13" t="n">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="G32" s="13" t="n">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="H32" s="13" t="n">
-        <v>99</v>
+        <v>486</v>
       </c>
       <c r="I32" s="13" t="n">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="J32" s="13" t="n">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K32" s="13" t="n">
-        <v>51</v>
+        <v>371</v>
       </c>
       <c r="L32" s="13" t="n">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="M32" s="13" t="n">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="N32" s="13" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="O32" s="13" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="P32" s="13" t="n">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="Q32" s="13" t="n">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="R32" s="13" t="n">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="S32" s="13" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="T32" s="13" t="n">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="U32" s="13" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="V32" s="13" t="n">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="W32" s="13" t="n">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="X32" s="13" t="n">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="Y32" s="13" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="Z32" s="13" t="n">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="AA32" s="13" t="n">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="AB32" s="13" t="n">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AC32" s="13" t="n">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="AD32" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AE32" s="13" t="n">
-        <v>91</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33">
@@ -6695,91 +6695,91 @@
         </is>
       </c>
       <c r="B33" s="13" t="n">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="C33" s="13" t="n">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="D33" s="13" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E33" s="13" t="n">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="F33" s="13" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G33" s="13" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H33" s="13" t="n">
-        <v>32</v>
+        <v>557</v>
       </c>
       <c r="I33" s="13" t="n">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="J33" s="13" t="n">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="K33" s="13" t="n">
-        <v>59</v>
+        <v>307</v>
       </c>
       <c r="L33" s="13" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M33" s="13" t="n">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="N33" s="13" t="n">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="O33" s="13" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="P33" s="13" t="n">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="13" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="R33" s="13" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="S33" s="13" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="T33" s="13" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="U33" s="13" t="n">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="V33" s="13" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="W33" s="13" t="n">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="X33" s="13" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="Y33" s="13" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="Z33" s="13" t="n">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="AA33" s="13" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AB33" s="13" t="n">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="AC33" s="13" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AD33" s="13" t="n">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="AE33" s="12" t="n">
         <v>0</v>
